--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\3D-printer\Braille printer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Brailleprinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF559A8-B37D-46CE-A984-78E4E34F6F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C0722-15FF-482A-B110-46978E7A7F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="4224" xr2:uid="{110836C7-179D-4ECB-89DE-92B610AE0A25}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="262">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -863,15 +863,6 @@
   </si>
   <si>
     <t>617</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>Loctite</t>
-  </si>
-  <si>
-    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -962,20 +953,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,9 +970,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1018,6 +994,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1334,1826 +1325,1805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78217E55-B613-4EDB-95A0-F9D70FDA8662}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>11.78</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="13">
         <v>2</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="17" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="18">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="20">
         <v>12.21</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="17"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="14">
         <v>24</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="14">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="18">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="14">
         <v>0.7</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="13">
         <v>2</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="14">
         <v>0.82</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="18">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="14">
         <v>0.82</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17" t="s">
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="14">
         <v>0.83</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="18">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="14">
         <v>1.59</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="17"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="17" t="s">
+      <c r="G29" s="14"/>
+      <c r="H29" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="18">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="17" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18">
+      <c r="D31" s="12"/>
+      <c r="E31" s="13">
         <v>4</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="14">
         <v>4.05</v>
       </c>
-      <c r="H31" s="17"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="14">
         <v>1.94</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="13">
         <v>2</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="19">
+      <c r="F33" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="14">
         <v>0</v>
       </c>
-      <c r="H33" s="17"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="18">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17" t="s">
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="14">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="13">
         <v>10</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="14">
         <v>1.38</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="18">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17" t="s">
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="17" t="s">
+      <c r="G36" s="14"/>
+      <c r="H36" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="18">
-        <v>1</v>
-      </c>
-      <c r="F37" s="17" t="s">
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="17" t="s">
+      <c r="G37" s="14"/>
+      <c r="H37" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="15">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="15">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="10">
         <v>6</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="11">
         <v>17.2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="10">
         <v>6</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="15">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="20">
         <v>0</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="15">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="5" t="s">
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="10">
         <v>6</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="11">
         <v>5.51</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E47" s="15">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="15">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="15">
-        <v>1</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="11">
         <v>1.3</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="18">
-        <v>1</v>
-      </c>
-      <c r="F53" s="17" t="s">
+      <c r="E53" s="13">
+        <v>1</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="14">
         <v>5.96</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="10">
         <v>2</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G54" s="16">
+      <c r="F54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="11">
         <v>0</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="15">
-        <v>1</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="11">
         <v>1.97</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H55" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="15">
-        <v>1</v>
-      </c>
-      <c r="F56" s="5" t="s">
+      <c r="E56" s="10">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="11">
         <v>0.59</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="15">
-        <v>1</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="11">
         <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="15">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5" t="s">
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="11">
         <v>5.3</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="10">
         <v>2</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="11">
         <v>1.61</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="15">
-        <v>1</v>
-      </c>
-      <c r="F60" s="21" t="s">
+      <c r="E60" s="10">
+        <v>1</v>
+      </c>
+      <c r="F60" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="11">
         <v>0.52</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="15">
-        <v>1</v>
-      </c>
-      <c r="F61" s="21" t="s">
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="9">
         <v>1206</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="10">
         <v>6</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="11">
         <v>0.63</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="10">
         <v>7</v>
       </c>
-      <c r="F63" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="F63" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="20">
         <v>0</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="10">
         <v>3</v>
       </c>
-      <c r="F64" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="5" t="s">
+      <c r="F64" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" s="20"/>
+      <c r="H64" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="15">
-        <v>1</v>
-      </c>
-      <c r="F65" s="21" t="s">
+      <c r="E65" s="10">
+        <v>1</v>
+      </c>
+      <c r="F65" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="11">
         <v>0.62</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="10">
         <v>2</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="11">
         <v>1.01</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="F67" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" s="20">
         <v>0</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G68" s="3"/>
+      <c r="F68" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="20"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="10">
         <v>4</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G71" s="3">
+      <c r="F71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="15">
-        <v>1</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" s="3"/>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="20"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="10">
         <v>12</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="20"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="10">
         <v>4</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="20"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="10">
         <v>12</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="20"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="10">
         <v>2</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="20"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="10">
         <v>2</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="20"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="10">
         <v>6</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="20"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="10">
         <v>5</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="5" t="s">
+      <c r="F79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="20"/>
+      <c r="H79" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="10">
         <v>7</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="20"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="10">
         <v>2</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G81" s="20"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="10">
         <v>5</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="10">
         <v>0</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="20"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="15">
-        <v>1</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G84" s="3"/>
+      <c r="E84" s="10">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="20"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="10">
         <v>2</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="20"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="15">
-        <v>1</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="5" t="s">
+      <c r="E86" s="10">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G86" s="20"/>
+      <c r="H86" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="15">
-        <v>1</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="15">
-        <v>1</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G88" s="3"/>
+      <c r="E87" s="10">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G87" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3161,7 +3131,7 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G71:G88"/>
+    <mergeCell ref="G71:G87"/>
     <mergeCell ref="G67:G68"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="G44:G45"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Brailleprinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C0722-15FF-482A-B110-46978E7A7F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4857EA-9445-45B4-81F0-113CACC6EDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="4224" xr2:uid="{110836C7-179D-4ECB-89DE-92B610AE0A25}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="261">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -565,15 +565,9 @@
     <t>Closed loop 2GT belt</t>
   </si>
   <si>
-    <t>2GT belt</t>
-  </si>
-  <si>
     <t>188mm x 6mm</t>
   </si>
   <si>
-    <t>525mm x 6mm</t>
-  </si>
-  <si>
     <t>94T / 188mm</t>
   </si>
   <si>
@@ -841,9 +835,6 @@
     <t>https://www.aliexpress.com/item/1005002575803340.html</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/32918948939.html</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1005003068711960.html</t>
   </si>
   <si>
@@ -863,6 +854,12 @@
   </si>
   <si>
     <t>617</t>
+  </si>
+  <si>
+    <t>242mm x 6mm</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005003269480958.html</t>
   </si>
 </sst>
 </file>
@@ -1327,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78217E55-B613-4EDB-95A0-F9D70FDA8662}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -1455,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G7" s="11">
         <v>11.78</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1706,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G20" s="14">
         <v>24</v>
@@ -1730,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G21" s="14">
         <v>1.1399999999999999</v>
@@ -1754,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G22" s="14">
         <v>0.7</v>
@@ -1778,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G23" s="14">
         <v>0.82</v>
@@ -1802,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G24" s="14">
         <v>0.82</v>
@@ -1814,10 +1811,10 @@
         <v>147</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>28</v>
@@ -1826,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G25" s="14">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="H25" s="12"/>
     </row>
@@ -1841,7 +1838,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>28</v>
@@ -1850,13 +1847,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G26" s="14">
         <v>1.59</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1966,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G32" s="14">
         <v>1.94</v>
@@ -2029,7 +2026,7 @@
         <v>146</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>143</v>
@@ -2038,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G35" s="14">
         <v>1.38</v>
@@ -2050,7 +2047,7 @@
         <v>158</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>159</v>
@@ -2071,13 +2068,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>19</v>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2107,13 +2104,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>19</v>
@@ -2130,13 +2127,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>19</v>
@@ -2153,13 +2150,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>28</v>
@@ -2168,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G42" s="11">
         <v>17.2</v>
@@ -2176,13 +2173,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>19</v>
@@ -2194,21 +2191,21 @@
         <v>11</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E44" s="10">
         <v>1</v>
@@ -2220,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E45" s="10">
         <v>1</v>
@@ -2244,18 +2241,18 @@
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>13</v>
@@ -2264,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G46" s="11">
         <v>5.51</v>
@@ -2272,16 +2269,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
@@ -2295,13 +2292,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>28</v>
@@ -2313,18 +2310,18 @@
         <v>11</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>28</v>
@@ -2333,13 +2330,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G49" s="11">
         <v>1.3</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2359,7 +2356,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>99</v>
@@ -2385,7 +2382,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>26</v>
@@ -2411,7 +2408,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>95</v>
@@ -2437,7 +2434,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>64</v>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>62</v>
@@ -2483,7 +2480,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>69</v>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>73</v>
@@ -2532,7 +2529,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>75</v>
@@ -2558,7 +2555,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>79</v>
@@ -2578,7 +2575,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>82</v>
@@ -2604,7 +2601,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>85</v>
@@ -2630,7 +2627,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>88</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>89</v>
@@ -2680,7 +2677,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>92</v>
@@ -2703,7 +2700,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>112</v>
@@ -2729,13 +2726,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>28</v>
@@ -2762,10 +2759,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>120</v>
@@ -2785,10 +2782,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>36</v>
@@ -2806,10 +2803,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>33</v>
@@ -2827,10 +2824,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>118</v>
@@ -2848,13 +2845,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>13</v>
@@ -2869,10 +2866,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>110</v>
@@ -2890,10 +2887,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>109</v>
@@ -2911,10 +2908,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>108</v>
@@ -2932,10 +2929,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>107</v>
@@ -2956,10 +2953,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>36</v>
@@ -2977,10 +2974,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>157</v>
@@ -2998,10 +2995,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>33</v>
@@ -3019,10 +3016,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>118</v>
@@ -3040,13 +3037,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>13</v>
@@ -3061,16 +3058,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E85" s="10">
         <v>2</v>
@@ -3082,7 +3079,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>121</v>
@@ -3106,7 +3103,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>121</v>
@@ -3222,7 +3219,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -3384,7 +3381,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Brailleprinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4857EA-9445-45B4-81F0-113CACC6EDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B042A8B-9094-4208-B229-28D493C99CEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="4224" xr2:uid="{110836C7-179D-4ECB-89DE-92B610AE0A25}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="262">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -565,12 +565,6 @@
     <t>Closed loop 2GT belt</t>
   </si>
   <si>
-    <t>188mm x 6mm</t>
-  </si>
-  <si>
-    <t>94T / 188mm</t>
-  </si>
-  <si>
     <t>Carriage</t>
   </si>
   <si>
@@ -856,10 +850,19 @@
     <t>617</t>
   </si>
   <si>
-    <t>242mm x 6mm</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005003269480958.html</t>
+    <t>200mm x 6mm</t>
+  </si>
+  <si>
+    <t>524mm x 6mm</t>
+  </si>
+  <si>
+    <t>100T / 200mm</t>
+  </si>
+  <si>
+    <t>262T / 564mm</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005004107020953.html</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1007,6 +1010,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1324,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78217E55-B613-4EDB-95A0-F9D70FDA8662}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1440,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -1452,13 +1456,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G7" s="11">
         <v>11.78</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1703,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G20" s="14">
         <v>24</v>
@@ -1727,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G21" s="14">
         <v>1.1399999999999999</v>
@@ -1751,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G22" s="14">
         <v>0.7</v>
@@ -1775,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G23" s="14">
         <v>0.82</v>
@@ -1799,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G24" s="14">
         <v>0.82</v>
@@ -1814,7 +1818,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>28</v>
@@ -1823,12 +1827,14 @@
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" s="14">
+        <v>2.23</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G25" s="14">
-        <v>1.08</v>
-      </c>
-      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
@@ -1838,7 +1844,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>28</v>
@@ -1846,14 +1852,14 @@
       <c r="E26" s="13">
         <v>1</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>251</v>
+      <c r="F26" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="G26" s="14">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1963,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G32" s="14">
         <v>1.94</v>
@@ -2026,7 +2032,7 @@
         <v>146</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>143</v>
@@ -2035,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G35" s="14">
         <v>1.38</v>
@@ -2047,7 +2053,7 @@
         <v>158</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>159</v>
@@ -2068,13 +2074,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>19</v>
@@ -2092,7 +2098,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2104,13 +2110,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>19</v>
@@ -2127,13 +2133,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>19</v>
@@ -2150,13 +2156,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>28</v>
@@ -2165,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G42" s="11">
         <v>17.2</v>
@@ -2173,13 +2179,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>19</v>
@@ -2191,21 +2197,21 @@
         <v>11</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E44" s="10">
         <v>1</v>
@@ -2217,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" s="10">
         <v>1</v>
@@ -2241,18 +2247,18 @@
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>13</v>
@@ -2261,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G46" s="11">
         <v>5.51</v>
@@ -2269,16 +2275,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
@@ -2292,13 +2298,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>28</v>
@@ -2310,18 +2316,18 @@
         <v>11</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>28</v>
@@ -2330,13 +2336,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G49" s="11">
         <v>1.3</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2356,7 +2362,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>99</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>26</v>
@@ -2408,7 +2414,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>95</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>64</v>
@@ -2457,7 +2463,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>62</v>
@@ -2480,7 +2486,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>69</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>73</v>
@@ -2529,7 +2535,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>75</v>
@@ -2555,7 +2561,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>79</v>
@@ -2575,7 +2581,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>82</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>85</v>
@@ -2627,7 +2633,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>88</v>
@@ -2651,7 +2657,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>89</v>
@@ -2677,7 +2683,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>92</v>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>112</v>
@@ -2726,13 +2732,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>28</v>
@@ -2759,10 +2765,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>120</v>
@@ -2782,10 +2788,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>36</v>
@@ -2803,10 +2809,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>33</v>
@@ -2824,10 +2830,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>118</v>
@@ -2845,13 +2851,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>13</v>
@@ -2866,10 +2872,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>110</v>
@@ -2887,10 +2893,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>109</v>
@@ -2908,10 +2914,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>108</v>
@@ -2929,10 +2935,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>107</v>
@@ -2953,10 +2959,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>36</v>
@@ -2974,10 +2980,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>157</v>
@@ -2995,10 +3001,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>33</v>
@@ -3016,10 +3022,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>118</v>
@@ -3037,13 +3043,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>13</v>
@@ -3058,16 +3064,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E85" s="10">
         <v>2</v>
@@ -3079,7 +3085,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>121</v>
@@ -3103,7 +3109,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>121</v>
@@ -3219,7 +3225,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -3381,7 +3387,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Brailleprinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B042A8B-9094-4208-B229-28D493C99CEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4F7889-A07A-4584-9DBA-6B42CC452708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="4224" xr2:uid="{110836C7-179D-4ECB-89DE-92B610AE0A25}"/>
   </bookViews>
@@ -808,9 +808,6 @@
     <t>DIN988 shim ring</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1000007480470.html</t>
-  </si>
-  <si>
     <t>OD 9mm x 1mm</t>
   </si>
   <si>
@@ -863,6 +860,9 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005004107020953.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005004535281832.html</t>
   </si>
 </sst>
 </file>
@@ -995,6 +995,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,7 +1011,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78217E55-B613-4EDB-95A0-F9D70FDA8662}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,36 +1346,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1405,16 +1405,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="G7" s="11">
         <v>11.78</v>
@@ -1535,16 +1535,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
@@ -1637,7 +1637,7 @@
       <c r="F16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="21">
         <v>12.21</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -1663,7 +1663,7 @@
       <c r="F17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="12" t="s">
         <v>57</v>
       </c>
@@ -1679,16 +1679,16 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
@@ -1707,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G20" s="14">
         <v>24</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G21" s="14">
         <v>1.1399999999999999</v>
@@ -1755,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G22" s="14">
         <v>0.7</v>
@@ -1779,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G23" s="14">
         <v>0.82</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G24" s="14">
         <v>0.82</v>
@@ -1818,7 +1818,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>28</v>
@@ -1827,13 +1827,13 @@
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G25" s="14">
         <v>2.23</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1844,7 +1844,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>28</v>
@@ -1852,14 +1852,14 @@
       <c r="E26" s="13">
         <v>1</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>249</v>
+      <c r="F26" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="G26" s="14">
         <v>1.64</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1873,16 +1873,16 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G32" s="14">
         <v>1.94</v>
@@ -2032,7 +2032,7 @@
         <v>146</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>143</v>
@@ -2041,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G35" s="14">
         <v>1.38</v>
@@ -2053,7 +2053,7 @@
         <v>158</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>159</v>
@@ -2097,16 +2097,16 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
@@ -2171,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G42" s="11">
         <v>17.2</v>
@@ -2219,7 +2219,7 @@
       <c r="F44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="21">
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -2245,7 +2245,7 @@
       <c r="F45" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="20"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="3" t="s">
         <v>181</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G46" s="11">
         <v>5.51</v>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49" s="11">
         <v>1.3</v>
@@ -2349,16 +2349,16 @@
       <c r="B50" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
@@ -2624,7 +2624,7 @@
       <c r="F63" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="21">
         <v>0</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -2650,7 +2650,7 @@
       <c r="F64" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G64" s="20"/>
+      <c r="G64" s="21"/>
       <c r="H64" s="3" t="s">
         <v>111</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="F67" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="21">
         <v>0</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -2749,19 +2749,19 @@
       <c r="F68" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="20"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
@@ -2782,7 +2782,7 @@
       <c r="F71" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G71" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       <c r="F72" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G72" s="20"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
@@ -2826,7 +2826,7 @@
       <c r="F73" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="20"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
@@ -2847,7 +2847,7 @@
       <c r="F74" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G74" s="20"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
@@ -2868,7 +2868,7 @@
       <c r="F75" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="20"/>
+      <c r="G75" s="21"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
@@ -2889,7 +2889,7 @@
       <c r="F76" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="20"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
@@ -2910,7 +2910,7 @@
       <c r="F77" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G77" s="20"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
@@ -2931,7 +2931,7 @@
       <c r="F78" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G78" s="20"/>
+      <c r="G78" s="21"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
@@ -2952,7 +2952,7 @@
       <c r="F79" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G79" s="20"/>
+      <c r="G79" s="21"/>
       <c r="H79" s="3" t="s">
         <v>38</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="F80" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="20"/>
+      <c r="G80" s="21"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
@@ -2997,7 +2997,7 @@
       <c r="F81" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="20"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
@@ -3018,7 +3018,7 @@
       <c r="F82" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G82" s="20"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
@@ -3039,7 +3039,7 @@
       <c r="F83" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G83" s="20"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
@@ -3060,7 +3060,7 @@
       <c r="F84" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="20"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
@@ -3073,7 +3073,7 @@
         <v>123</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E85" s="10">
         <v>2</v>
@@ -3081,7 +3081,7 @@
       <c r="F85" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G85" s="20"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
@@ -3102,14 +3102,14 @@
       <c r="F86" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G86" s="20"/>
+      <c r="G86" s="21"/>
       <c r="H86" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>121</v>
@@ -3126,7 +3126,7 @@
       <c r="F87" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G87" s="20"/>
+      <c r="G87" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
